--- a/downloads/como-criar-intervalos-nomeados.xlsx
+++ b/downloads/como-criar-intervalos-nomeados.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Dropbox\Public\erredoze\postagens\nomear_intervalos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\websites\excelnaweb.github.io\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <definedName name="Vendas">Plan1!$C$2:$C$9</definedName>
     <definedName name="Vendedores">Plan1!$A$2:$A$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -218,226 +218,45 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15776</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1"/>
+        <xdr:cNvPr id="4" name="Agrupar 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A56317-1014-4BA4-8CA8-9B07D639CBDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4810126" y="457199"/>
-          <a:ext cx="4210050" cy="2447925"/>
-          <a:chOff x="6648450" y="447675"/>
-          <a:chExt cx="4848225" cy="2409825"/>
+          <a:off x="4952999" y="276225"/>
+          <a:ext cx="3629025" cy="3311426"/>
+          <a:chOff x="5419724" y="628650"/>
+          <a:chExt cx="3629025" cy="3311426"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Retângulo de cantos arredondados 2">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6648450" y="447675"/>
-            <a:ext cx="4848225" cy="2409825"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Este exemplo te Ajudou? Colabore Conosco!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Faça uma Doação!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ajude-nos a continuar ofertando conteúdo de qualidade </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>GRATUITAMENTE</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>. Ficaremos muito agradecidos pela sua contribuição voluntária de qualquer valor!</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Imagem 3">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Faça uma doação"/>
+          <xdr:cNvPr id="5" name="Imagem 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C31C80-9617-4A5D-94A9-C0A7D230EE68}"/>
+              </a:ext>
+            </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
@@ -457,14 +276,61 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8067675" y="2219325"/>
-            <a:ext cx="1990725" cy="457200"/>
+            <a:off x="5419724" y="1104900"/>
+            <a:ext cx="3629025" cy="2835176"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Retângulo 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240B83D7-4FCA-4607-904C-9839C253510A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="628650"/>
+            <a:ext cx="3600450" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1"/>
+              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -474,7 +340,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -512,7 +378,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -547,6 +413,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -582,9 +465,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -761,7 +661,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/downloads/como-criar-intervalos-nomeados.xlsx
+++ b/downloads/como-criar-intervalos-nomeados.xlsx
@@ -95,6 +95,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -107,12 +108,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,23 +222,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15776</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Agrupar 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Clique aqui para acessar"/>
+        <xdr:cNvPr id="6" name="Agrupar 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A56317-1014-4BA4-8CA8-9B07D639CBDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E351CB-1A4A-4CA3-991F-279BB7100974}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -243,90 +245,740 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4952999" y="276225"/>
-          <a:ext cx="3629025" cy="3311426"/>
-          <a:chOff x="5419724" y="628650"/>
-          <a:chExt cx="3629025" cy="3311426"/>
+          <a:off x="4991100" y="95250"/>
+          <a:ext cx="5514975" cy="3409950"/>
+          <a:chOff x="6743700" y="352425"/>
+          <a:chExt cx="5514975" cy="3409950"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Imagem 4">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="CaixaDeTexto 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C31C80-9617-4A5D-94A9-C0A7D230EE68}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20143C60-EA34-4720-B0DF-3E4EEC9E894A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5419724" y="1104900"/>
-            <a:ext cx="3629025" cy="2835176"/>
+            <a:off x="6743700" y="352425"/>
+            <a:ext cx="5514975" cy="3409950"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Retângulo 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240B83D7-4FCA-4607-904C-9839C253510A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="628650"/>
-            <a:ext cx="3600450" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175"/>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
           </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
+            <a:scrgbClr r="0" g="0" b="0"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="1"/>
-              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>DICA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="2000" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> DE 1 MILHÃO DE DÓLARES</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="2000" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR" sz="1300" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Existe um                                  bem bacana </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>e muito barato</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> que é ministrado totalmente online (você faz em casa e na hora que for melhor pra você). Ele possui </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>6 Módulos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>distribuídos em diversas vídeo aulas. </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR" sz="1300" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Acessando o   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>              </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Você poderá baixar todas as planilhas grátis do site</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>. São mais de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>40 planilhas prontas.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR" sz="1300" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>                           </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>você aprende a usar as principais ferramentas do Excel, como formatar células, montar fórmulas, elaborar gráficos e entre outras coisas que você pode  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR" sz="1300" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Ah e não existe mensalidade ta? Você paga o valor do curso e pronto, pode começar a estudar na hora! Para conhecer mais é só </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1300">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="CaixaDeTexto 7">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBA6655-F9F8-41C2-B1F5-B3DAC96B20CA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7496174" y="904875"/>
+            <a:ext cx="1247775" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Curso</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> de Excel</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="CaixaDeTexto 8">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0C6E6C-5A56-4D69-B252-0A922B248F47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7715250" y="1704975"/>
+            <a:ext cx="600075" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Curso</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1300">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F07DED7-F634-496C-8A2E-6BC8CA8CA0C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6762750" y="2324100"/>
+            <a:ext cx="1057276" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Nesse Curso</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="CaixaDeTexto 10">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0A51BC-A6A4-4000-91FA-99760D503F89}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10344149" y="3343275"/>
+            <a:ext cx="1885951" cy="180974"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1300" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> clicar aqui e aproveitar!</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -661,7 +1313,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
